--- a/data/trans_camb/P16A_n_R3-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R3-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.23534985190789</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.041835999673514</v>
+        <v>5.041835999673515</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.810470729640228</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7842754126491489</v>
+        <v>-0.7532622361119915</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.0538153700143276</v>
+        <v>0.02073496914012054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.462686298773434</v>
+        <v>3.520211765026834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.275505146855388</v>
+        <v>2.026902313260376</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.177070321266005</v>
+        <v>2.351065429636376</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.770909898066034</v>
+        <v>7.554213999367525</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.175514321839228</v>
+        <v>1.170818233111868</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.673369191701094</v>
+        <v>1.725215248721835</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.007329929334444</v>
+        <v>6.125368236408919</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.510703216927978</v>
+        <v>1.519739674693569</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.603546228651302</v>
+        <v>2.720636859634397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.030308917915962</v>
+        <v>7.14800552886194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.721340862597383</v>
+        <v>5.532098701137019</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.015314777682546</v>
+        <v>6.27496138057066</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.0843764578595</v>
+        <v>11.00698341778944</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.207221364786481</v>
+        <v>3.159397164896487</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.902835130717633</v>
+        <v>3.89459945470287</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.515910397317484</v>
+        <v>8.542802910181599</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.289358967713217</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5.262263519826838</v>
+        <v>5.262263519826839</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>4.470131289614423</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5756686395283732</v>
+        <v>-0.568759422114573</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1565440619266867</v>
+        <v>-0.1614308282670758</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.880790455494158</v>
+        <v>1.81311048741601</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.395145058770799</v>
+        <v>1.203245673135015</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.258841295168416</v>
+        <v>1.262178018051661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>4.552232000162681</v>
+        <v>4.257256282774921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8090576719477479</v>
+        <v>0.8124739553971141</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.195401677113039</v>
+        <v>1.180090942710635</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>4.418730017812537</v>
+        <v>4.24488508970279</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.623527724466408</v>
+        <v>2.956766016919306</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.908886614514937</v>
+        <v>5.990530298555973</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>13.72564627085284</v>
+        <v>15.30823525701767</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>13.28955918401097</v>
+        <v>15.2137631147698</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>13.54851256211478</v>
+        <v>15.57195571776224</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>30.57994866748759</v>
+        <v>30.37066360435992</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.52563891582641</v>
+        <v>5.322569613622981</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.596528561221209</v>
+        <v>6.500692089260366</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>16.16584501194777</v>
+        <v>15.44354872437445</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.501930754068782</v>
+        <v>-1.412336027408616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.083353127845156</v>
+        <v>-1.045024569857759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.218784152977849</v>
+        <v>1.373570533486988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.477751256627869</v>
+        <v>1.266265432001726</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2765236188779277</v>
+        <v>-0.2974485956034075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.178688650273347</v>
+        <v>5.084652750879263</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2641811501175518</v>
+        <v>0.1895657699829583</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2480306416048687</v>
+        <v>-0.4120369291228303</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.656405394916061</v>
+        <v>3.716147862123425</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7326418879755295</v>
+        <v>0.7507792135525939</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.178647856941</v>
+        <v>1.125257377929178</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.927342743847334</v>
+        <v>4.04461566764309</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.852037714139258</v>
+        <v>4.558101691743063</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.744148401924421</v>
+        <v>2.958426896376485</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.750513350100277</v>
+        <v>8.559562195650294</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.448203561072786</v>
+        <v>2.343907902709776</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.688981370314963</v>
+        <v>1.522112640284707</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.864964942151859</v>
+        <v>5.899866292903698</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7189544399365988</v>
+        <v>-0.6846808484155236</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5302358453464465</v>
+        <v>-0.5136587742366292</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4371186844855697</v>
+        <v>0.5465688459275569</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4443593500990023</v>
+        <v>0.3942243388145721</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1041464105725503</v>
+        <v>-0.1585754886107212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.60051681817468</v>
+        <v>1.49948814478894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09015659028457208</v>
+        <v>0.09709003183117185</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1160617476630307</v>
+        <v>-0.1687677888869614</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.49418210401985</v>
+        <v>1.517661057196328</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7660894685775886</v>
+        <v>0.8529362234488796</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.271439280879357</v>
+        <v>1.174500243745569</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.114465515968913</v>
+        <v>4.494966747272669</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.046920503925942</v>
+        <v>2.834636541503345</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.910870220037339</v>
+        <v>1.937077662312591</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.090264304081481</v>
+        <v>5.542457015444467</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.709311186102715</v>
+        <v>1.730862463655868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.222990878250139</v>
+        <v>1.102214746196014</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.157139443283477</v>
+        <v>4.343239504769867</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.197104588718696</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.94359564388018</v>
+        <v>2.943595643880181</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.226061131935407</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5263211312541576</v>
+        <v>-0.4619653394864445</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7949870335608468</v>
+        <v>-0.8087461940271786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9402107926291052</v>
+        <v>0.8889316345959732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.525319385271651</v>
+        <v>-2.60030814003519</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.32475917681375</v>
+        <v>-2.526490445615409</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9518290302810878</v>
+        <v>0.6548368408652451</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.104746475990122</v>
+        <v>-1.08282349529973</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.062606923474259</v>
+        <v>-1.124173193676197</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.341830597711326</v>
+        <v>1.408746626740128</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.616914580014562</v>
+        <v>2.813211495511296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.858217251284459</v>
+        <v>1.934373304225153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.004082799713808</v>
+        <v>3.862688235488069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.491964449982239</v>
+        <v>1.498153343876823</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.919742253992043</v>
+        <v>1.806808170966973</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.163737248462783</v>
+        <v>4.971783695034148</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.512723729271236</v>
+        <v>1.539609068137945</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.311998711743074</v>
+        <v>1.359443961396376</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.872661542270114</v>
+        <v>3.996220114812004</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.04732037058954322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7066909889803235</v>
+        <v>0.7066909889803238</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.08136659366478943</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4056035508473194</v>
+        <v>-0.3141541102592153</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4512020291873293</v>
+        <v>-0.4570911305622598</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3089712540185028</v>
+        <v>0.2399284177352265</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4820198422445767</v>
+        <v>-0.5028163806729528</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.457900939230253</v>
+        <v>-0.4639308940595869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1648818673099463</v>
+        <v>0.1241679547814502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.318454317338824</v>
+        <v>-0.3194593707753064</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3238340265419039</v>
+        <v>-0.3362957819803136</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3677756469173393</v>
+        <v>0.3960064461957841</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.4019703000242</v>
+        <v>3.563910871922715</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.484006334055649</v>
+        <v>2.60496727313031</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.528720994256901</v>
+        <v>5.048790213071166</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5365818806155466</v>
+        <v>0.4635870599509054</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.636714158454282</v>
+        <v>0.5600478846654141</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.679981490264385</v>
+        <v>1.607763724132489</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6756242075161608</v>
+        <v>0.694686089300951</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6136623853335632</v>
+        <v>0.6352273616680321</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.825712248514738</v>
+        <v>1.886574769361454</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8156040809209838</v>
+        <v>-0.6972426666854066</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.701773807273641</v>
+        <v>-1.691152573845684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.951055647813756</v>
+        <v>1.764629625364349</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.233426168937378</v>
+        <v>1.266204743963329</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3833065248808498</v>
+        <v>0.3248498847544403</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.404374959108661</v>
+        <v>6.192147013386625</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6557300614191858</v>
+        <v>0.747813584901743</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1881600059029429</v>
+        <v>-0.3023179447612419</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.812572537351601</v>
+        <v>4.815030223746189</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.934534928534462</v>
+        <v>2.097617635826834</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3364338405981094</v>
+        <v>0.4450852870369598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.788478024219891</v>
+        <v>4.927760762979219</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.927141311189006</v>
+        <v>5.101471602974877</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.81876098824805</v>
+        <v>3.937924720048398</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.06706549498613</v>
+        <v>10.18810131141198</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.910556942217233</v>
+        <v>3.130580773847819</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.904374512217543</v>
+        <v>1.803829241236436</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.20247391492738</v>
+        <v>7.1153347165231</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3623182076189924</v>
+        <v>-0.3254406051902895</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7070046685719045</v>
+        <v>-0.6959974633926299</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7580362333965512</v>
+        <v>0.6810938203014386</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2829476926706681</v>
+        <v>0.3069337670978673</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08767159046245709</v>
+        <v>0.05162522586913561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.567945235233138</v>
+        <v>1.490112282033193</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2027247673662813</v>
+        <v>0.2311232864493026</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07342349118711577</v>
+        <v>-0.1093238538571814</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.578085999926298</v>
+        <v>1.562600005960461</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.316628125676438</v>
+        <v>1.527814837941897</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2938380803002789</v>
+        <v>0.3901583086878134</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.449902140847446</v>
+        <v>3.685181700972826</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.06853253070619</v>
+        <v>2.164071884654845</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.716204627772576</v>
+        <v>1.69680526784441</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.456455905663169</v>
+        <v>4.573581621479729</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.408280397530483</v>
+        <v>1.566206100735595</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9701931264500336</v>
+        <v>0.8897222663981754</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.659817177679673</v>
+        <v>3.686935966797411</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3247920559103825</v>
+        <v>-0.3607309055458598</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3511519863544697</v>
+        <v>-0.3653622642057306</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.55425772873696</v>
+        <v>2.518289280169293</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.466912121440987</v>
+        <v>1.459200034986759</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8566201765431292</v>
+        <v>0.8528036192990118</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.987755070372427</v>
+        <v>6.077839113303648</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8025726423125591</v>
+        <v>0.8425098567530492</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4588015521352943</v>
+        <v>0.4696190885798487</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.605174341118381</v>
+        <v>4.550766292993878</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.00105747219287</v>
+        <v>1.001376065276354</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8626812753393318</v>
+        <v>0.7824932825552868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.076679820444744</v>
+        <v>4.066869977111481</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.401213658986039</v>
+        <v>3.280731594012795</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.749570672120087</v>
+        <v>2.63666876064084</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.867060750233867</v>
+        <v>7.905841208471766</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.981123663556858</v>
+        <v>2.010328864451721</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.585729115920067</v>
+        <v>1.544970354700298</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.817705673985167</v>
+        <v>5.761386586771417</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.4843948548667521</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2.544408945555688</v>
+        <v>2.544408945555687</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1886533749727539</v>
+        <v>-0.2233138872011766</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2111859215445643</v>
+        <v>-0.2038567369436127</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.350103393427569</v>
+        <v>1.400075277998869</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4716942744451898</v>
+        <v>0.4758782312052439</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2947549361109055</v>
+        <v>0.2803899751589326</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.983428566288909</v>
+        <v>1.95001294910735</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3414942000694397</v>
+        <v>0.3627811574794588</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2025451731525881</v>
+        <v>0.2028226318061019</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.948317630385555</v>
+        <v>1.918738342448877</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8853076590384376</v>
+        <v>0.874293522994008</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.800220783375961</v>
+        <v>0.638179979898028</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.510902814030147</v>
+        <v>3.46332544361788</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.511312110532465</v>
+        <v>1.477966000122701</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.227982614303372</v>
+        <v>1.211731369932485</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.730119467550801</v>
+        <v>3.640213703595498</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.083688204163391</v>
+        <v>1.137691357758387</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8915281493659791</v>
+        <v>0.8978425349030102</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.263760143908893</v>
+        <v>3.287969897844354</v>
       </c>
     </row>
     <row r="34">
